--- a/DeVeeraApp/wwwroot/ImportSample/SampleQuote.xlsx
+++ b/DeVeeraApp/wwwroot/ImportSample/SampleQuote.xlsx
@@ -1,65 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Quote</t>
   </si>
   <si>
     <t>Author</t>
   </si>
+  <si>
+    <t>Random Quote</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <i val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,11 +223,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -144,74 +484,403 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff010101"/>
-      <rgbColor rgb="ff2d4d6a"/>
-      <rgbColor rgb="ffdeebf6"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00010101"/>
+      <rgbColor rgb="002D4D6A"/>
+      <rgbColor rgb="00DEEBF6"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -410,8 +1079,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -431,20 +1098,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -461,8 +1127,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -487,8 +1152,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -513,8 +1177,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,8 +1202,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,8 +1227,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,8 +1252,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,8 +1277,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,8 +1302,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,8 +1327,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,9 +1340,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -699,8 +1362,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -720,8 +1381,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,8 +1406,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,8 +1431,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,8 +1456,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,8 +1481,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,8 +1506,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,8 +1531,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,8 +1556,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,8 +1581,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,8 +1606,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,9 +1619,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -981,8 +1638,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1002,20 +1657,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1032,8 +1686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,8 +1711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,8 +1736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,8 +1761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,8 +1786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1811,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,8 +1836,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,8 +1861,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,8 +1886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,9 +1899,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1265,89 +1916,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="92.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5047619047619" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.847619047619" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5047619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5047619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6761904761905" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="13.55" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="18.75" customHeight="1" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" ht="18.75" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
+    <row r="4" ht="13.55" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" ht="13.55" customHeight="1" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" ht="13.55" customHeight="1" spans="1:5">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" ht="13.55" customHeight="1" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" ht="13.55" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" ht="13.55" customHeight="1" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" ht="13.55" customHeight="1" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1356,7 +2012,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
